--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -1556,7 +1556,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="billingnetworkcontractingstatus"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1627,7 +1627,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="performingnetworkcontractingstatus"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1641,7 +1641,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="claimrecvddate"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1659,7 +1659,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="servicefacility"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -2514,7 +2514,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategory"/&gt;
     &lt;code value="denialreason"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -2540,7 +2540,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategory"/&gt;
     &lt;code value="allowedunits"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -17558,7 +17558,7 @@
         <v>43</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>480</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -1553,7 +1553,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBSupportingInfoType"/&gt;
     &lt;code value="billingnetworkcontractingstatus"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1624,13 +1624,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBSupportingInfoType"/&gt;
     &lt;code value="performingnetworkcontractingstatus"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>claimrecvddate</t>
+    <t>clmrecvddate</t>
   </si>
   <si>
     <t>The date the claim was received by the payer (88)</t>
@@ -1638,8 +1638,8 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
-    &lt;code value="claimrecvddate"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBSupportingInfoType"/&gt;
+    &lt;code value="clmrecvddate"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1656,7 +1656,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBSupportingInfoType"/&gt;
     &lt;code value="servicefacility"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -2511,7 +2511,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategory"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBAdjudicationDiscriminator"/&gt;
     &lt;code value="denialreason"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -2537,7 +2537,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategory"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBAdjudicationDiscriminator"/&gt;
     &lt;code value="allowedunits"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -1724,7 +1724,7 @@
     <t>Provides health context for the evaluation of the products and/or services.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10CM</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CDCICD910CMDiagnosisCodes</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.type</t>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12630" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12625" uniqueCount="1086">
   <si>
     <t>Path</t>
   </si>
@@ -1468,10 +1468,7 @@
     <t>Required to group or associate information items with common characteristics. For example: admission information or prior treatments.</t>
   </si>
   <si>
-    <t>The valuset used for additional information category codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-informationcategory</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBSupportingInfoType</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.code</t>
@@ -12225,13 +12222,11 @@
         <v>43</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X78" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X78" s="2"/>
+      <c r="Y78" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>43</v>
@@ -12278,7 +12273,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12304,16 +12299,16 @@
         <v>178</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12341,11 +12336,11 @@
         <v>116</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>43</v>
       </c>
@@ -12362,7 +12357,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12391,7 +12386,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12414,13 +12409,13 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -12471,7 +12466,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -12500,7 +12495,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12523,19 +12518,19 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12584,7 +12579,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12613,7 +12608,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12639,16 +12634,16 @@
         <v>104</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12676,11 +12671,11 @@
         <v>116</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>43</v>
       </c>
@@ -12697,7 +12692,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -12729,7 +12724,7 @@
         <v>447</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>43</v>
@@ -12754,7 +12749,7 @@
         <v>311</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>449</v>
@@ -13330,7 +13325,7 @@
         <v>43</v>
       </c>
       <c r="R88" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>43</v>
@@ -13345,13 +13340,11 @@
         <v>43</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X88" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X88" s="2"/>
+      <c r="Y88" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>43</v>
@@ -13398,7 +13391,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13507,7 +13500,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13618,7 +13611,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13644,16 +13637,16 @@
         <v>104</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13702,7 +13695,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13723,15 +13716,15 @@
         <v>43</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>503</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13757,16 +13750,16 @@
         <v>52</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -13815,7 +13808,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -13836,15 +13829,15 @@
         <v>43</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>511</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13870,16 +13863,16 @@
         <v>178</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>43</v>
@@ -13908,7 +13901,7 @@
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>43</v>
@@ -13926,7 +13919,7 @@
         <v>43</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -13955,7 +13948,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13978,13 +13971,13 @@
         <v>43</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -14035,7 +14028,7 @@
         <v>43</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -14064,7 +14057,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -14087,19 +14080,19 @@
         <v>43</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>43</v>
@@ -14148,7 +14141,7 @@
         <v>43</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -14177,7 +14170,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -14203,16 +14196,16 @@
         <v>104</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>43</v>
@@ -14240,11 +14233,11 @@
         <v>116</v>
       </c>
       <c r="X96" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y96" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y96" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z96" t="s" s="2">
         <v>43</v>
       </c>
@@ -14261,7 +14254,7 @@
         <v>43</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>41</v>
@@ -14293,7 +14286,7 @@
         <v>447</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>43</v>
@@ -14318,7 +14311,7 @@
         <v>311</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>449</v>
@@ -14894,7 +14887,7 @@
         <v>43</v>
       </c>
       <c r="R102" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>43</v>
@@ -14909,13 +14902,11 @@
         <v>43</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X102" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X102" s="2"/>
+      <c r="Y102" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>43</v>
@@ -14962,7 +14953,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14988,16 +14979,16 @@
         <v>178</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>43</v>
@@ -15026,7 +15017,7 @@
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>43</v>
@@ -15044,7 +15035,7 @@
         <v>43</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -15073,7 +15064,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -15096,13 +15087,13 @@
         <v>43</v>
       </c>
       <c r="J104" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K104" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K104" t="s" s="2">
+      <c r="L104" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -15153,7 +15144,7 @@
         <v>43</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -15182,7 +15173,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15205,19 +15196,19 @@
         <v>43</v>
       </c>
       <c r="J105" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K105" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K105" t="s" s="2">
+      <c r="L105" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>43</v>
@@ -15266,7 +15257,7 @@
         <v>43</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -15295,7 +15286,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15321,16 +15312,16 @@
         <v>104</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>43</v>
@@ -15358,11 +15349,11 @@
         <v>116</v>
       </c>
       <c r="X106" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y106" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y106" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z106" t="s" s="2">
         <v>43</v>
       </c>
@@ -15379,7 +15370,7 @@
         <v>43</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -15411,7 +15402,7 @@
         <v>447</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>43</v>
@@ -15436,7 +15427,7 @@
         <v>311</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L107" t="s" s="2">
         <v>449</v>
@@ -16012,7 +16003,7 @@
         <v>43</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>43</v>
@@ -16027,13 +16018,11 @@
         <v>43</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X112" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X112" s="2"/>
+      <c r="Y112" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>43</v>
@@ -16080,7 +16069,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -16106,16 +16095,16 @@
         <v>178</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>43</v>
@@ -16143,11 +16132,11 @@
         <v>116</v>
       </c>
       <c r="X113" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Y113" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Y113" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="Z113" t="s" s="2">
         <v>43</v>
       </c>
@@ -16164,7 +16153,7 @@
         <v>43</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -16193,7 +16182,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16216,13 +16205,13 @@
         <v>43</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -16273,7 +16262,7 @@
         <v>43</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -16302,7 +16291,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16325,19 +16314,19 @@
         <v>43</v>
       </c>
       <c r="J115" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K115" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K115" t="s" s="2">
+      <c r="L115" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>43</v>
@@ -16386,7 +16375,7 @@
         <v>43</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -16415,7 +16404,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16441,16 +16430,16 @@
         <v>104</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>43</v>
@@ -16478,11 +16467,11 @@
         <v>116</v>
       </c>
       <c r="X116" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y116" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y116" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z116" t="s" s="2">
         <v>43</v>
       </c>
@@ -16499,7 +16488,7 @@
         <v>43</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -16531,7 +16520,7 @@
         <v>447</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>43</v>
@@ -16556,7 +16545,7 @@
         <v>311</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L117" t="s" s="2">
         <v>449</v>
@@ -17132,7 +17121,7 @@
         <v>43</v>
       </c>
       <c r="R122" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>43</v>
@@ -17147,13 +17136,11 @@
         <v>43</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X122" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X122" s="2"/>
+      <c r="Y122" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>43</v>
@@ -17200,7 +17187,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17226,16 +17213,16 @@
         <v>178</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>43</v>
@@ -17263,11 +17250,11 @@
         <v>116</v>
       </c>
       <c r="X123" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Y123" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Y123" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="Z123" t="s" s="2">
         <v>43</v>
       </c>
@@ -17284,7 +17271,7 @@
         <v>43</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -17313,7 +17300,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17336,13 +17323,13 @@
         <v>43</v>
       </c>
       <c r="J124" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K124" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K124" t="s" s="2">
+      <c r="L124" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -17393,7 +17380,7 @@
         <v>43</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -17422,7 +17409,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17445,19 +17432,19 @@
         <v>43</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="M125" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>43</v>
@@ -17494,17 +17481,17 @@
         <v>43</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB125" s="2"/>
       <c r="AC125" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD125" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -17533,10 +17520,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>43</v>
@@ -17561,16 +17548,16 @@
         <v>280</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>43</v>
@@ -17619,7 +17606,7 @@
         <v>43</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -17648,7 +17635,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17674,16 +17661,16 @@
         <v>104</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>43</v>
@@ -17711,11 +17698,11 @@
         <v>116</v>
       </c>
       <c r="X127" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y127" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y127" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z127" t="s" s="2">
         <v>43</v>
       </c>
@@ -17732,7 +17719,7 @@
         <v>43</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>41</v>
@@ -17761,7 +17748,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17787,14 +17774,14 @@
         <v>311</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>43</v>
@@ -17843,7 +17830,7 @@
         <v>43</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -17872,7 +17859,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17981,7 +17968,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -18092,7 +18079,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -18205,7 +18192,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18231,16 +18218,16 @@
         <v>420</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="M132" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M132" t="s" s="2">
+      <c r="N132" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -18289,7 +18276,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>50</v>
@@ -18318,7 +18305,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18344,14 +18331,14 @@
         <v>178</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18380,7 +18367,7 @@
       </c>
       <c r="X133" s="2"/>
       <c r="Y133" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>43</v>
@@ -18398,7 +18385,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>50</v>
@@ -18427,7 +18414,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18453,16 +18440,16 @@
         <v>178</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="M134" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>43</v>
@@ -18491,7 +18478,7 @@
       </c>
       <c r="X134" s="2"/>
       <c r="Y134" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>43</v>
@@ -18509,7 +18496,7 @@
         <v>43</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
@@ -18538,7 +18525,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18564,14 +18551,14 @@
         <v>178</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>43</v>
@@ -18599,11 +18586,11 @@
         <v>116</v>
       </c>
       <c r="X135" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="Y135" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="Y135" t="s" s="2">
-        <v>555</v>
-      </c>
       <c r="Z135" t="s" s="2">
         <v>43</v>
       </c>
@@ -18620,7 +18607,7 @@
         <v>43</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -18649,7 +18636,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18675,16 +18662,16 @@
         <v>178</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L136" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="M136" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>43</v>
@@ -18712,11 +18699,11 @@
         <v>116</v>
       </c>
       <c r="X136" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="Y136" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="Y136" t="s" s="2">
-        <v>562</v>
-      </c>
       <c r="Z136" t="s" s="2">
         <v>43</v>
       </c>
@@ -18733,7 +18720,7 @@
         <v>43</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
@@ -18762,7 +18749,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18788,14 +18775,14 @@
         <v>311</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>43</v>
@@ -18844,7 +18831,7 @@
         <v>43</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>41</v>
@@ -18873,7 +18860,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18982,7 +18969,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -19093,7 +19080,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19206,7 +19193,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19232,14 +19219,14 @@
         <v>420</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -19288,7 +19275,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>50</v>
@@ -19317,7 +19304,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19343,14 +19330,14 @@
         <v>178</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>43</v>
@@ -19378,11 +19365,11 @@
         <v>116</v>
       </c>
       <c r="X142" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="Y142" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="Y142" t="s" s="2">
-        <v>577</v>
-      </c>
       <c r="Z142" t="s" s="2">
         <v>43</v>
       </c>
@@ -19399,7 +19386,7 @@
         <v>43</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
@@ -19428,7 +19415,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19454,14 +19441,14 @@
         <v>265</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>43</v>
@@ -19510,7 +19497,7 @@
         <v>43</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>41</v>
@@ -19539,7 +19526,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19562,17 +19549,17 @@
         <v>43</v>
       </c>
       <c r="J144" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="K144" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="K144" t="s" s="2">
+      <c r="L144" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>43</v>
@@ -19600,11 +19587,11 @@
         <v>116</v>
       </c>
       <c r="X144" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Y144" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="Y144" t="s" s="2">
-        <v>588</v>
-      </c>
       <c r="Z144" t="s" s="2">
         <v>43</v>
       </c>
@@ -19621,7 +19608,7 @@
         <v>43</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>50</v>
@@ -19650,7 +19637,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19673,17 +19660,17 @@
         <v>43</v>
       </c>
       <c r="J145" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="K145" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="K145" t="s" s="2">
+      <c r="L145" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>43</v>
@@ -19732,7 +19719,7 @@
         <v>43</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>41</v>
@@ -19761,7 +19748,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19787,14 +19774,14 @@
         <v>420</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>43</v>
@@ -19843,7 +19830,7 @@
         <v>43</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -19872,7 +19859,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19898,16 +19885,16 @@
         <v>311</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>43</v>
@@ -19956,7 +19943,7 @@
         <v>43</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>50</v>
@@ -19968,16 +19955,16 @@
         <v>43</v>
       </c>
       <c r="AI147" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL147" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>43</v>
@@ -19985,7 +19972,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -20094,7 +20081,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20205,7 +20192,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20318,7 +20305,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20344,16 +20331,16 @@
         <v>430</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>43</v>
@@ -20402,7 +20389,7 @@
         <v>43</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>50</v>
@@ -20431,7 +20418,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20454,17 +20441,17 @@
         <v>51</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>253</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>43</v>
@@ -20513,7 +20500,7 @@
         <v>43</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>50</v>
@@ -20542,7 +20529,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20568,16 +20555,16 @@
         <v>52</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L153" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="L153" t="s" s="2">
+      <c r="M153" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>43</v>
@@ -20626,7 +20613,7 @@
         <v>43</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>41</v>
@@ -20655,7 +20642,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20681,14 +20668,14 @@
         <v>311</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20737,7 +20724,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>41</v>
@@ -20766,7 +20753,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20875,7 +20862,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20986,7 +20973,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21099,7 +21086,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21122,19 +21109,19 @@
         <v>43</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>43</v>
@@ -21183,7 +21170,7 @@
         <v>43</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>41</v>
@@ -21212,7 +21199,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21238,14 +21225,14 @@
         <v>178</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>43</v>
@@ -21273,11 +21260,11 @@
         <v>108</v>
       </c>
       <c r="X159" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="Y159" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="Y159" t="s" s="2">
-        <v>639</v>
-      </c>
       <c r="Z159" t="s" s="2">
         <v>43</v>
       </c>
@@ -21294,7 +21281,7 @@
         <v>43</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>41</v>
@@ -21323,7 +21310,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21346,17 +21333,17 @@
         <v>43</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="K160" t="s" s="2">
+      <c r="L160" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>43</v>
@@ -21405,7 +21392,7 @@
         <v>43</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>41</v>
@@ -21434,7 +21421,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21460,14 +21447,14 @@
         <v>311</v>
       </c>
       <c r="K161" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L161" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>43</v>
@@ -21516,7 +21503,7 @@
         <v>43</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>41</v>
@@ -21545,7 +21532,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21654,7 +21641,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21765,7 +21752,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21878,7 +21865,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21904,14 +21891,14 @@
         <v>420</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>43</v>
@@ -21960,7 +21947,7 @@
         <v>43</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>50</v>
@@ -21989,7 +21976,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22015,14 +22002,14 @@
         <v>420</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>43</v>
@@ -22071,7 +22058,7 @@
         <v>43</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -22100,7 +22087,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22126,14 +22113,14 @@
         <v>420</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>43</v>
@@ -22182,7 +22169,7 @@
         <v>43</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>41</v>
@@ -22211,7 +22198,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22237,14 +22224,14 @@
         <v>420</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>43</v>
@@ -22293,7 +22280,7 @@
         <v>43</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>41</v>
@@ -22322,7 +22309,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22348,14 +22335,14 @@
         <v>420</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>43</v>
@@ -22404,7 +22391,7 @@
         <v>43</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>41</v>
@@ -22433,7 +22420,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22459,14 +22446,14 @@
         <v>178</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L170" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22494,11 +22481,11 @@
         <v>116</v>
       </c>
       <c r="X170" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="Y170" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="Y170" t="s" s="2">
-        <v>677</v>
-      </c>
       <c r="Z170" t="s" s="2">
         <v>43</v>
       </c>
@@ -22515,7 +22502,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>41</v>
@@ -22544,7 +22531,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22570,16 +22557,16 @@
         <v>178</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="L171" t="s" s="2">
+      <c r="M171" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="M171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22607,11 +22594,11 @@
         <v>116</v>
       </c>
       <c r="X171" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="Y171" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="Y171" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="Z171" t="s" s="2">
         <v>43</v>
       </c>
@@ -22628,7 +22615,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -22657,11 +22644,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22683,16 +22670,16 @@
         <v>178</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="M172" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22721,7 +22708,7 @@
       </c>
       <c r="X172" s="2"/>
       <c r="Y172" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>43</v>
@@ -22739,7 +22726,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>50</v>
@@ -22768,7 +22755,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22794,16 +22781,16 @@
         <v>178</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22832,7 +22819,7 @@
       </c>
       <c r="X173" s="2"/>
       <c r="Y173" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>43</v>
@@ -22850,7 +22837,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>41</v>
@@ -22879,7 +22866,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22905,16 +22892,16 @@
         <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="L174" t="s" s="2">
+      <c r="M174" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -22942,11 +22929,11 @@
         <v>116</v>
       </c>
       <c r="X174" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="Y174" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="Y174" t="s" s="2">
-        <v>704</v>
-      </c>
       <c r="Z174" t="s" s="2">
         <v>43</v>
       </c>
@@ -22963,7 +22950,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22992,7 +22979,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23018,14 +23005,14 @@
         <v>205</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -23062,17 +23049,17 @@
         <v>43</v>
       </c>
       <c r="AA175" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB175" s="2"/>
       <c r="AC175" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD175" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -23101,10 +23088,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>43</v>
@@ -23129,14 +23116,14 @@
         <v>205</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>43</v>
@@ -23185,7 +23172,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -23214,7 +23201,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23237,17 +23224,17 @@
         <v>43</v>
       </c>
       <c r="J177" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="K177" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="K177" t="s" s="2">
+      <c r="L177" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>714</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -23275,26 +23262,26 @@
         <v>116</v>
       </c>
       <c r="X177" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="Y177" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="Y177" t="s" s="2">
-        <v>717</v>
-      </c>
       <c r="Z177" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA177" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB177" s="2"/>
       <c r="AC177" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD177" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -23323,10 +23310,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C178" t="s" s="2">
         <v>43</v>
@@ -23351,14 +23338,14 @@
         <v>178</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>43</v>
@@ -23387,7 +23374,7 @@
       </c>
       <c r="X178" s="2"/>
       <c r="Y178" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>43</v>
@@ -23405,7 +23392,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23434,7 +23421,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23457,17 +23444,17 @@
         <v>43</v>
       </c>
       <c r="J179" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="K179" t="s" s="2">
         <v>722</v>
       </c>
-      <c r="K179" t="s" s="2">
+      <c r="L179" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23516,7 +23503,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>41</v>
@@ -23545,7 +23532,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23568,17 +23555,17 @@
         <v>43</v>
       </c>
       <c r="J180" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="K180" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="K180" t="s" s="2">
+      <c r="L180" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23627,7 +23614,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23656,7 +23643,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23679,19 +23666,19 @@
         <v>43</v>
       </c>
       <c r="J181" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="K181" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="K181" t="s" s="2">
+      <c r="L181" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="L181" t="s" s="2">
+      <c r="M181" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="M181" t="s" s="2">
+      <c r="N181" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23740,7 +23727,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23769,7 +23756,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23792,19 +23779,19 @@
         <v>43</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K182" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="L182" t="s" s="2">
         <v>738</v>
       </c>
-      <c r="L182" t="s" s="2">
+      <c r="M182" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="M182" t="s" s="2">
+      <c r="N182" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>43</v>
@@ -23853,7 +23840,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -23882,7 +23869,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23905,17 +23892,17 @@
         <v>43</v>
       </c>
       <c r="J183" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="K183" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="K183" t="s" s="2">
+      <c r="L183" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>43</v>
@@ -23964,7 +23951,7 @@
         <v>43</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>41</v>
@@ -23993,7 +23980,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24019,16 +24006,16 @@
         <v>178</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>744</v>
       </c>
-      <c r="L184" t="s" s="2">
+      <c r="M184" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>746</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>747</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>43</v>
@@ -24056,11 +24043,11 @@
         <v>116</v>
       </c>
       <c r="X184" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="Y184" t="s" s="2">
         <v>748</v>
       </c>
-      <c r="Y184" t="s" s="2">
-        <v>749</v>
-      </c>
       <c r="Z184" t="s" s="2">
         <v>43</v>
       </c>
@@ -24077,7 +24064,7 @@
         <v>43</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>41</v>
@@ -24106,7 +24093,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24132,14 +24119,14 @@
         <v>178</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="L185" t="s" s="2">
         <v>751</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>43</v>
@@ -24167,11 +24154,11 @@
         <v>116</v>
       </c>
       <c r="X185" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="Y185" t="s" s="2">
         <v>753</v>
       </c>
-      <c r="Y185" t="s" s="2">
-        <v>754</v>
-      </c>
       <c r="Z185" t="s" s="2">
         <v>43</v>
       </c>
@@ -24188,7 +24175,7 @@
         <v>43</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>41</v>
@@ -24217,7 +24204,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24240,17 +24227,17 @@
         <v>43</v>
       </c>
       <c r="J186" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="K186" t="s" s="2">
         <v>756</v>
       </c>
-      <c r="K186" t="s" s="2">
+      <c r="L186" t="s" s="2">
         <v>757</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>758</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -24299,7 +24286,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>41</v>
@@ -24328,7 +24315,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24354,14 +24341,14 @@
         <v>420</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>761</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>762</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24410,7 +24397,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24439,7 +24426,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24465,14 +24452,14 @@
         <v>311</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>765</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>766</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24512,16 +24499,16 @@
         <v>452</v>
       </c>
       <c r="AB188" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AC188" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD188" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24550,7 +24537,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24659,7 +24646,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24770,7 +24757,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24883,7 +24870,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24909,16 +24896,16 @@
         <v>178</v>
       </c>
       <c r="K192" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="L192" t="s" s="2">
         <v>773</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="M192" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>775</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>776</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -24946,11 +24933,11 @@
         <v>116</v>
       </c>
       <c r="X192" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="Y192" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="Y192" t="s" s="2">
-        <v>778</v>
-      </c>
       <c r="Z192" t="s" s="2">
         <v>43</v>
       </c>
@@ -24967,7 +24954,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>50</v>
@@ -24996,7 +24983,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25022,16 +25009,16 @@
         <v>178</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>780</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="M193" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="M193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -25059,11 +25046,11 @@
         <v>116</v>
       </c>
       <c r="X193" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="Y193" t="s" s="2">
         <v>784</v>
       </c>
-      <c r="Y193" t="s" s="2">
-        <v>785</v>
-      </c>
       <c r="Z193" t="s" s="2">
         <v>43</v>
       </c>
@@ -25080,7 +25067,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -25109,7 +25096,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25132,19 +25119,19 @@
         <v>43</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L194" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L194" t="s" s="2">
+      <c r="M194" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M194" t="s" s="2">
+      <c r="N194" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -25193,7 +25180,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -25222,7 +25209,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25245,19 +25232,19 @@
         <v>43</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K195" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L195" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="L195" t="s" s="2">
+      <c r="M195" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="M195" t="s" s="2">
+      <c r="N195" t="s" s="2">
         <v>794</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25306,7 +25293,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -25335,10 +25322,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C196" t="s" s="2">
         <v>43</v>
@@ -25363,14 +25350,14 @@
         <v>311</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25419,7 +25406,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25448,7 +25435,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25557,7 +25544,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25668,7 +25655,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25781,7 +25768,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25807,16 +25794,16 @@
         <v>178</v>
       </c>
       <c r="K200" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="L200" t="s" s="2">
         <v>773</v>
       </c>
-      <c r="L200" t="s" s="2">
+      <c r="M200" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="M200" t="s" s="2">
+      <c r="N200" t="s" s="2">
         <v>775</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>776</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25845,7 +25832,7 @@
       </c>
       <c r="X200" s="2"/>
       <c r="Y200" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Z200" t="s" s="2">
         <v>43</v>
@@ -25863,7 +25850,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>50</v>
@@ -25892,7 +25879,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25918,16 +25905,16 @@
         <v>178</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="L201" t="s" s="2">
         <v>780</v>
       </c>
-      <c r="L201" t="s" s="2">
+      <c r="M201" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="M201" t="s" s="2">
+      <c r="N201" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="N201" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25955,11 +25942,11 @@
         <v>116</v>
       </c>
       <c r="X201" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="Y201" t="s" s="2">
         <v>784</v>
       </c>
-      <c r="Y201" t="s" s="2">
-        <v>785</v>
-      </c>
       <c r="Z201" t="s" s="2">
         <v>43</v>
       </c>
@@ -25976,7 +25963,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -26005,7 +25992,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26028,19 +26015,19 @@
         <v>43</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K202" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L202" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L202" t="s" s="2">
+      <c r="M202" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M202" t="s" s="2">
+      <c r="N202" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -26089,7 +26076,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -26118,7 +26105,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26141,19 +26128,19 @@
         <v>43</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L203" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="L203" t="s" s="2">
+      <c r="M203" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="M203" t="s" s="2">
+      <c r="N203" t="s" s="2">
         <v>794</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26202,7 +26189,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26231,10 +26218,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C204" t="s" s="2">
         <v>43</v>
@@ -26259,14 +26246,14 @@
         <v>311</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26315,7 +26302,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26344,7 +26331,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26453,7 +26440,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26564,7 +26551,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26677,7 +26664,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26703,16 +26690,16 @@
         <v>178</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="L208" t="s" s="2">
         <v>773</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="M208" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>775</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>776</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26722,7 +26709,7 @@
         <v>43</v>
       </c>
       <c r="R208" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>43</v>
@@ -26740,11 +26727,11 @@
         <v>116</v>
       </c>
       <c r="X208" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="Y208" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="Y208" t="s" s="2">
-        <v>778</v>
-      </c>
       <c r="Z208" t="s" s="2">
         <v>43</v>
       </c>
@@ -26761,7 +26748,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>50</v>
@@ -26790,7 +26777,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26816,16 +26803,16 @@
         <v>178</v>
       </c>
       <c r="K209" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="L209" t="s" s="2">
         <v>780</v>
       </c>
-      <c r="L209" t="s" s="2">
+      <c r="M209" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="N209" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26854,7 +26841,7 @@
       </c>
       <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>43</v>
@@ -26872,7 +26859,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26901,7 +26888,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26924,19 +26911,19 @@
         <v>43</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K210" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L210" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L210" t="s" s="2">
+      <c r="M210" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M210" t="s" s="2">
+      <c r="N210" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26985,7 +26972,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -27014,7 +27001,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27037,19 +27024,19 @@
         <v>43</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K211" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L211" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="L211" t="s" s="2">
+      <c r="M211" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="M211" t="s" s="2">
+      <c r="N211" t="s" s="2">
         <v>794</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -27098,7 +27085,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -27127,10 +27114,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C212" t="s" s="2">
         <v>43</v>
@@ -27155,14 +27142,14 @@
         <v>311</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27211,7 +27198,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27240,7 +27227,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27349,7 +27336,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27460,7 +27447,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27573,7 +27560,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27599,16 +27586,16 @@
         <v>178</v>
       </c>
       <c r="K216" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="L216" t="s" s="2">
         <v>773</v>
       </c>
-      <c r="L216" t="s" s="2">
+      <c r="M216" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="M216" t="s" s="2">
+      <c r="N216" t="s" s="2">
         <v>775</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>776</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27637,7 +27624,7 @@
       </c>
       <c r="X216" s="2"/>
       <c r="Y216" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="Z216" t="s" s="2">
         <v>43</v>
@@ -27655,7 +27642,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>50</v>
@@ -27684,7 +27671,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27710,16 +27697,16 @@
         <v>178</v>
       </c>
       <c r="K217" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="L217" t="s" s="2">
         <v>780</v>
       </c>
-      <c r="L217" t="s" s="2">
+      <c r="M217" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="M217" t="s" s="2">
+      <c r="N217" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27747,11 +27734,11 @@
         <v>116</v>
       </c>
       <c r="X217" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="Y217" t="s" s="2">
         <v>784</v>
       </c>
-      <c r="Y217" t="s" s="2">
-        <v>785</v>
-      </c>
       <c r="Z217" t="s" s="2">
         <v>43</v>
       </c>
@@ -27768,7 +27755,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>41</v>
@@ -27797,7 +27784,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27820,19 +27807,19 @@
         <v>43</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K218" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L218" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L218" t="s" s="2">
+      <c r="M218" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M218" t="s" s="2">
+      <c r="N218" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27881,7 +27868,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -27910,7 +27897,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27933,19 +27920,19 @@
         <v>43</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L219" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="L219" t="s" s="2">
+      <c r="M219" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="M219" t="s" s="2">
+      <c r="N219" t="s" s="2">
         <v>794</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27994,7 +27981,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -28023,10 +28010,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C220" t="s" s="2">
         <v>43</v>
@@ -28051,14 +28038,14 @@
         <v>311</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -28107,7 +28094,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -28136,7 +28123,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28245,7 +28232,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28356,7 +28343,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28469,7 +28456,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28495,16 +28482,16 @@
         <v>178</v>
       </c>
       <c r="K224" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="L224" t="s" s="2">
         <v>773</v>
       </c>
-      <c r="L224" t="s" s="2">
+      <c r="M224" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="M224" t="s" s="2">
+      <c r="N224" t="s" s="2">
         <v>775</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>776</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>43</v>
@@ -28514,7 +28501,7 @@
         <v>43</v>
       </c>
       <c r="R224" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="S224" t="s" s="2">
         <v>43</v>
@@ -28532,11 +28519,11 @@
         <v>116</v>
       </c>
       <c r="X224" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="Y224" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="Y224" t="s" s="2">
-        <v>778</v>
-      </c>
       <c r="Z224" t="s" s="2">
         <v>43</v>
       </c>
@@ -28553,7 +28540,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>50</v>
@@ -28582,7 +28569,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28608,16 +28595,16 @@
         <v>178</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>780</v>
       </c>
-      <c r="L225" t="s" s="2">
+      <c r="M225" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="M225" t="s" s="2">
+      <c r="N225" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28645,11 +28632,11 @@
         <v>116</v>
       </c>
       <c r="X225" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="Y225" t="s" s="2">
         <v>784</v>
       </c>
-      <c r="Y225" t="s" s="2">
-        <v>785</v>
-      </c>
       <c r="Z225" t="s" s="2">
         <v>43</v>
       </c>
@@ -28666,7 +28653,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28695,7 +28682,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28718,19 +28705,19 @@
         <v>43</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K226" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L226" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L226" t="s" s="2">
+      <c r="M226" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M226" t="s" s="2">
+      <c r="N226" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28779,7 +28766,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28808,7 +28795,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28831,19 +28818,19 @@
         <v>43</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K227" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L227" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="L227" t="s" s="2">
+      <c r="M227" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="M227" t="s" s="2">
+      <c r="N227" t="s" s="2">
         <v>794</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28892,7 +28879,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28921,7 +28908,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28947,10 +28934,10 @@
         <v>311</v>
       </c>
       <c r="K228" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="L228" t="s" s="2">
         <v>810</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>811</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -29001,7 +28988,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -29030,7 +29017,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -29139,7 +29126,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29250,7 +29237,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29363,7 +29350,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29389,14 +29376,14 @@
         <v>420</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="M232" s="2"/>
       <c r="N232" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
@@ -29445,7 +29432,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>50</v>
@@ -29474,7 +29461,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29500,14 +29487,14 @@
         <v>178</v>
       </c>
       <c r="K233" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L233" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="L233" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="M233" s="2"/>
       <c r="N233" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29535,11 +29522,11 @@
         <v>116</v>
       </c>
       <c r="X233" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="Y233" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="Y233" t="s" s="2">
-        <v>677</v>
-      </c>
       <c r="Z233" t="s" s="2">
         <v>43</v>
       </c>
@@ -29556,7 +29543,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29585,7 +29572,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29611,16 +29598,16 @@
         <v>178</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="L234" t="s" s="2">
-        <v>680</v>
-      </c>
       <c r="M234" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29648,11 +29635,11 @@
         <v>116</v>
       </c>
       <c r="X234" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="Y234" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="Y234" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="Z234" t="s" s="2">
         <v>43</v>
       </c>
@@ -29669,7 +29656,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29698,11 +29685,11 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -29724,16 +29711,16 @@
         <v>178</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L235" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M235" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M235" t="s" s="2">
+      <c r="N235" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29761,11 +29748,11 @@
         <v>116</v>
       </c>
       <c r="X235" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Y235" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="Y235" t="s" s="2">
-        <v>823</v>
-      </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
       </c>
@@ -29782,7 +29769,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>50</v>
@@ -29811,7 +29798,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29837,16 +29824,16 @@
         <v>178</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L236" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="M236" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="M236" t="s" s="2">
+      <c r="N236" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29874,11 +29861,11 @@
         <v>116</v>
       </c>
       <c r="X236" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="Y236" t="s" s="2">
         <v>826</v>
       </c>
-      <c r="Y236" t="s" s="2">
-        <v>827</v>
-      </c>
       <c r="Z236" t="s" s="2">
         <v>43</v>
       </c>
@@ -29895,7 +29882,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29924,7 +29911,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29950,16 +29937,16 @@
         <v>178</v>
       </c>
       <c r="K237" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="L237" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="L237" t="s" s="2">
+      <c r="M237" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="M237" t="s" s="2">
+      <c r="N237" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -29987,11 +29974,11 @@
         <v>116</v>
       </c>
       <c r="X237" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="Y237" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="Y237" t="s" s="2">
-        <v>704</v>
-      </c>
       <c r="Z237" t="s" s="2">
         <v>43</v>
       </c>
@@ -30008,7 +29995,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -30037,7 +30024,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30060,17 +30047,17 @@
         <v>43</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -30119,7 +30106,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -30148,7 +30135,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30171,17 +30158,17 @@
         <v>43</v>
       </c>
       <c r="J239" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="K239" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="K239" t="s" s="2">
+      <c r="L239" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="M239" s="2"/>
       <c r="N239" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>43</v>
@@ -30230,7 +30217,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -30259,7 +30246,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30282,19 +30269,19 @@
         <v>43</v>
       </c>
       <c r="J240" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="K240" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="K240" t="s" s="2">
+      <c r="L240" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="L240" t="s" s="2">
+      <c r="M240" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="M240" t="s" s="2">
+      <c r="N240" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>43</v>
@@ -30343,7 +30330,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>41</v>
@@ -30372,7 +30359,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30395,19 +30382,19 @@
         <v>43</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>738</v>
       </c>
-      <c r="L241" t="s" s="2">
+      <c r="M241" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="M241" t="s" s="2">
+      <c r="N241" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30456,7 +30443,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>41</v>
@@ -30485,7 +30472,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30508,17 +30495,17 @@
         <v>43</v>
       </c>
       <c r="J242" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="K242" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="K242" t="s" s="2">
+      <c r="L242" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="L242" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30567,7 +30554,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30596,7 +30583,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30622,14 +30609,14 @@
         <v>420</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30678,7 +30665,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30707,7 +30694,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30733,10 +30720,10 @@
         <v>43</v>
       </c>
       <c r="K244" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="L244" t="s" s="2">
         <v>838</v>
-      </c>
-      <c r="L244" t="s" s="2">
-        <v>839</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
@@ -30787,7 +30774,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30816,7 +30803,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30842,10 +30829,10 @@
         <v>311</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
@@ -30896,7 +30883,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30925,7 +30912,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -31034,7 +31021,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31145,7 +31132,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31258,7 +31245,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31284,14 +31271,14 @@
         <v>420</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -31340,7 +31327,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>50</v>
@@ -31369,7 +31356,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31395,14 +31382,14 @@
         <v>178</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L250" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="L250" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31430,11 +31417,11 @@
         <v>116</v>
       </c>
       <c r="X250" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="Y250" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="Y250" t="s" s="2">
-        <v>677</v>
-      </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
       </c>
@@ -31451,7 +31438,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31480,7 +31467,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31506,16 +31493,16 @@
         <v>178</v>
       </c>
       <c r="K251" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="L251" t="s" s="2">
+      <c r="M251" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="M251" t="s" s="2">
+      <c r="N251" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31543,11 +31530,11 @@
         <v>116</v>
       </c>
       <c r="X251" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="Y251" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="Y251" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="Z251" t="s" s="2">
         <v>43</v>
       </c>
@@ -31564,7 +31551,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31593,11 +31580,11 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -31619,16 +31606,16 @@
         <v>178</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L252" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M252" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M252" t="s" s="2">
+      <c r="N252" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31656,11 +31643,11 @@
         <v>116</v>
       </c>
       <c r="X252" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Y252" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="Y252" t="s" s="2">
-        <v>823</v>
-      </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
       </c>
@@ -31677,7 +31664,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>50</v>
@@ -31706,7 +31693,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31732,16 +31719,16 @@
         <v>178</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31769,11 +31756,11 @@
         <v>116</v>
       </c>
       <c r="X253" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="Y253" t="s" s="2">
         <v>826</v>
       </c>
-      <c r="Y253" t="s" s="2">
-        <v>827</v>
-      </c>
       <c r="Z253" t="s" s="2">
         <v>43</v>
       </c>
@@ -31790,7 +31777,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31819,7 +31806,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31845,16 +31832,16 @@
         <v>178</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="L254" t="s" s="2">
+      <c r="M254" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="M254" t="s" s="2">
+      <c r="N254" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="N254" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31882,11 +31869,11 @@
         <v>116</v>
       </c>
       <c r="X254" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="Y254" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="Y254" t="s" s="2">
-        <v>704</v>
-      </c>
       <c r="Z254" t="s" s="2">
         <v>43</v>
       </c>
@@ -31903,7 +31890,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31932,7 +31919,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31955,17 +31942,17 @@
         <v>43</v>
       </c>
       <c r="J255" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -32014,7 +32001,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -32043,7 +32030,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32066,17 +32053,17 @@
         <v>43</v>
       </c>
       <c r="J256" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="K256" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="K256" t="s" s="2">
+      <c r="L256" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="L256" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="M256" s="2"/>
       <c r="N256" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -32125,7 +32112,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -32154,7 +32141,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32177,19 +32164,19 @@
         <v>43</v>
       </c>
       <c r="J257" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="K257" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="K257" t="s" s="2">
+      <c r="L257" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="L257" t="s" s="2">
+      <c r="M257" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="M257" t="s" s="2">
+      <c r="N257" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -32238,7 +32225,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -32267,7 +32254,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32290,19 +32277,19 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K258" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="L258" t="s" s="2">
         <v>738</v>
       </c>
-      <c r="L258" t="s" s="2">
+      <c r="M258" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="M258" t="s" s="2">
+      <c r="N258" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="N258" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32351,7 +32338,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32380,7 +32367,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32403,17 +32390,17 @@
         <v>43</v>
       </c>
       <c r="J259" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="K259" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="K259" t="s" s="2">
+      <c r="L259" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="L259" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32462,7 +32449,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32491,7 +32478,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32517,14 +32504,14 @@
         <v>420</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32573,7 +32560,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32602,7 +32589,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32628,10 +32615,10 @@
         <v>43</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -32682,7 +32669,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32711,7 +32698,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32737,14 +32724,14 @@
         <v>311</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>861</v>
-      </c>
-      <c r="L262" t="s" s="2">
-        <v>862</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32793,7 +32780,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32822,7 +32809,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32931,7 +32918,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33042,7 +33029,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33155,7 +33142,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33181,14 +33168,14 @@
         <v>420</v>
       </c>
       <c r="K266" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="L266" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="L266" t="s" s="2">
-        <v>869</v>
       </c>
       <c r="M266" s="2"/>
       <c r="N266" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -33237,7 +33224,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -33266,7 +33253,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33292,14 +33279,14 @@
         <v>420</v>
       </c>
       <c r="K267" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="L267" t="s" s="2">
         <v>872</v>
-      </c>
-      <c r="L267" t="s" s="2">
-        <v>873</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33348,7 +33335,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33377,7 +33364,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33403,14 +33390,14 @@
         <v>420</v>
       </c>
       <c r="K268" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="L268" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="L268" t="s" s="2">
-        <v>877</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33459,7 +33446,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33488,7 +33475,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33511,17 +33498,17 @@
         <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="K269" t="s" s="2">
         <v>880</v>
       </c>
-      <c r="K269" t="s" s="2">
+      <c r="L269" t="s" s="2">
         <v>881</v>
-      </c>
-      <c r="L269" t="s" s="2">
-        <v>882</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33570,7 +33557,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33599,11 +33586,11 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -33625,16 +33612,16 @@
         <v>178</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L270" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M270" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M270" t="s" s="2">
+      <c r="N270" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="N270" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33662,11 +33649,11 @@
         <v>116</v>
       </c>
       <c r="X270" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Y270" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="Y270" t="s" s="2">
-        <v>823</v>
-      </c>
       <c r="Z270" t="s" s="2">
         <v>43</v>
       </c>
@@ -33683,7 +33670,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>50</v>
@@ -33712,7 +33699,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33738,16 +33725,16 @@
         <v>178</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L271" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="M271" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="M271" t="s" s="2">
+      <c r="N271" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="N271" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33775,11 +33762,11 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="Y271" t="s" s="2">
         <v>826</v>
       </c>
-      <c r="Y271" t="s" s="2">
-        <v>827</v>
-      </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
       </c>
@@ -33796,7 +33783,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33825,7 +33812,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33851,16 +33838,16 @@
         <v>178</v>
       </c>
       <c r="K272" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="L272" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="L272" t="s" s="2">
+      <c r="M272" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="M272" t="s" s="2">
+      <c r="N272" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="N272" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33888,11 +33875,11 @@
         <v>116</v>
       </c>
       <c r="X272" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="Y272" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="Y272" t="s" s="2">
-        <v>704</v>
-      </c>
       <c r="Z272" t="s" s="2">
         <v>43</v>
       </c>
@@ -33909,7 +33896,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33938,7 +33925,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33961,17 +33948,17 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K273" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="L273" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="L273" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -34020,7 +34007,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -34049,7 +34036,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34072,17 +34059,17 @@
         <v>43</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -34110,11 +34097,11 @@
         <v>116</v>
       </c>
       <c r="X274" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="Y274" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="Y274" t="s" s="2">
-        <v>717</v>
-      </c>
       <c r="Z274" t="s" s="2">
         <v>43</v>
       </c>
@@ -34131,7 +34118,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -34160,7 +34147,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34183,17 +34170,17 @@
         <v>43</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M275" s="2"/>
       <c r="N275" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -34242,7 +34229,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34271,7 +34258,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34294,17 +34281,17 @@
         <v>43</v>
       </c>
       <c r="J276" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="K276" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="K276" t="s" s="2">
+      <c r="L276" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="L276" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="M276" s="2"/>
       <c r="N276" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34353,7 +34340,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34382,7 +34369,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34405,19 +34392,19 @@
         <v>43</v>
       </c>
       <c r="J277" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="K277" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="K277" t="s" s="2">
+      <c r="L277" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="L277" t="s" s="2">
+      <c r="M277" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="M277" t="s" s="2">
+      <c r="N277" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34466,7 +34453,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34495,7 +34482,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34518,19 +34505,19 @@
         <v>43</v>
       </c>
       <c r="J278" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K278" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="L278" t="s" s="2">
         <v>738</v>
       </c>
-      <c r="L278" t="s" s="2">
+      <c r="M278" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="M278" t="s" s="2">
+      <c r="N278" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="N278" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34579,7 +34566,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34608,7 +34595,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34634,16 +34621,16 @@
         <v>178</v>
       </c>
       <c r="K279" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="L279" t="s" s="2">
         <v>744</v>
       </c>
-      <c r="L279" t="s" s="2">
-        <v>745</v>
-      </c>
       <c r="M279" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34671,11 +34658,11 @@
         <v>116</v>
       </c>
       <c r="X279" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="Y279" t="s" s="2">
         <v>748</v>
       </c>
-      <c r="Y279" t="s" s="2">
-        <v>749</v>
-      </c>
       <c r="Z279" t="s" s="2">
         <v>43</v>
       </c>
@@ -34692,7 +34679,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34721,7 +34708,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34747,14 +34734,14 @@
         <v>178</v>
       </c>
       <c r="K280" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="L280" t="s" s="2">
         <v>751</v>
-      </c>
-      <c r="L280" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34782,11 +34769,11 @@
         <v>116</v>
       </c>
       <c r="X280" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="Y280" t="s" s="2">
         <v>753</v>
       </c>
-      <c r="Y280" t="s" s="2">
-        <v>754</v>
-      </c>
       <c r="Z280" t="s" s="2">
         <v>43</v>
       </c>
@@ -34803,7 +34790,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34832,7 +34819,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34858,14 +34845,14 @@
         <v>420</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M281" s="2"/>
       <c r="N281" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34914,7 +34901,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34943,7 +34930,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34969,10 +34956,10 @@
         <v>43</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
@@ -35023,7 +35010,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -35052,7 +35039,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35078,10 +35065,10 @@
         <v>311</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
@@ -35132,7 +35119,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -35161,7 +35148,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35270,7 +35257,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35381,7 +35368,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35494,11 +35481,11 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -35520,16 +35507,16 @@
         <v>178</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L287" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M287" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M287" t="s" s="2">
+      <c r="N287" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="N287" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>43</v>
@@ -35557,11 +35544,11 @@
         <v>116</v>
       </c>
       <c r="X287" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Y287" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="Y287" t="s" s="2">
-        <v>823</v>
-      </c>
       <c r="Z287" t="s" s="2">
         <v>43</v>
       </c>
@@ -35578,7 +35565,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>50</v>
@@ -35607,7 +35594,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35633,16 +35620,16 @@
         <v>178</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L288" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="M288" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="M288" t="s" s="2">
+      <c r="N288" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="N288" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35670,11 +35657,11 @@
         <v>116</v>
       </c>
       <c r="X288" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="Y288" t="s" s="2">
         <v>826</v>
       </c>
-      <c r="Y288" t="s" s="2">
-        <v>827</v>
-      </c>
       <c r="Z288" t="s" s="2">
         <v>43</v>
       </c>
@@ -35691,7 +35678,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35720,7 +35707,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35743,17 +35730,17 @@
         <v>43</v>
       </c>
       <c r="J289" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35802,7 +35789,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35831,7 +35818,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35854,17 +35841,17 @@
         <v>43</v>
       </c>
       <c r="J290" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="K290" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="K290" t="s" s="2">
+      <c r="L290" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="L290" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35913,7 +35900,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35942,7 +35929,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35965,19 +35952,19 @@
         <v>43</v>
       </c>
       <c r="J291" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="K291" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="K291" t="s" s="2">
+      <c r="L291" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="L291" t="s" s="2">
+      <c r="M291" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="M291" t="s" s="2">
+      <c r="N291" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="N291" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -36026,7 +36013,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -36055,7 +36042,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36078,19 +36065,19 @@
         <v>43</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K292" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="L292" t="s" s="2">
         <v>738</v>
       </c>
-      <c r="L292" t="s" s="2">
+      <c r="M292" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="M292" t="s" s="2">
+      <c r="N292" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="N292" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -36139,7 +36126,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36168,7 +36155,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36194,14 +36181,14 @@
         <v>420</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M293" s="2"/>
       <c r="N293" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -36250,7 +36237,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36279,7 +36266,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36305,10 +36292,10 @@
         <v>43</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
@@ -36359,7 +36346,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36388,7 +36375,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36414,10 +36401,10 @@
         <v>311</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -36468,7 +36455,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36497,7 +36484,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36606,7 +36593,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36717,7 +36704,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36830,11 +36817,11 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -36856,16 +36843,16 @@
         <v>178</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L299" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M299" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M299" t="s" s="2">
+      <c r="N299" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="N299" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>43</v>
@@ -36893,11 +36880,11 @@
         <v>116</v>
       </c>
       <c r="X299" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Y299" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="Y299" t="s" s="2">
-        <v>823</v>
-      </c>
       <c r="Z299" t="s" s="2">
         <v>43</v>
       </c>
@@ -36914,7 +36901,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>50</v>
@@ -36943,7 +36930,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36969,16 +36956,16 @@
         <v>178</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L300" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="M300" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="M300" t="s" s="2">
+      <c r="N300" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="N300" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>43</v>
@@ -37006,11 +36993,11 @@
         <v>116</v>
       </c>
       <c r="X300" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="Y300" t="s" s="2">
         <v>826</v>
       </c>
-      <c r="Y300" t="s" s="2">
-        <v>827</v>
-      </c>
       <c r="Z300" t="s" s="2">
         <v>43</v>
       </c>
@@ -37027,7 +37014,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -37056,7 +37043,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37079,17 +37066,17 @@
         <v>43</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -37138,7 +37125,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37167,7 +37154,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37190,17 +37177,17 @@
         <v>43</v>
       </c>
       <c r="J302" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="K302" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="K302" t="s" s="2">
+      <c r="L302" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="L302" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>43</v>
@@ -37249,7 +37236,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -37278,7 +37265,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37301,19 +37288,19 @@
         <v>43</v>
       </c>
       <c r="J303" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="K303" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="K303" t="s" s="2">
+      <c r="L303" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="L303" t="s" s="2">
+      <c r="M303" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="M303" t="s" s="2">
+      <c r="N303" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="N303" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -37362,7 +37349,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37391,7 +37378,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37414,19 +37401,19 @@
         <v>43</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K304" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="L304" t="s" s="2">
         <v>738</v>
       </c>
-      <c r="L304" t="s" s="2">
+      <c r="M304" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="M304" t="s" s="2">
+      <c r="N304" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="N304" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37475,7 +37462,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37504,7 +37491,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37530,14 +37517,14 @@
         <v>420</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M305" s="2"/>
       <c r="N305" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37586,7 +37573,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37615,7 +37602,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37641,10 +37628,10 @@
         <v>43</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
@@ -37695,7 +37682,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37724,7 +37711,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37750,14 +37737,14 @@
         <v>43</v>
       </c>
       <c r="K307" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="L307" t="s" s="2">
         <v>926</v>
-      </c>
-      <c r="L307" t="s" s="2">
-        <v>927</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37806,7 +37793,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37835,7 +37822,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37861,16 +37848,16 @@
         <v>311</v>
       </c>
       <c r="K308" t="s" s="2">
+        <v>929</v>
+      </c>
+      <c r="L308" t="s" s="2">
         <v>930</v>
       </c>
-      <c r="L308" t="s" s="2">
+      <c r="M308" t="s" s="2">
         <v>931</v>
       </c>
-      <c r="M308" t="s" s="2">
+      <c r="N308" t="s" s="2">
         <v>932</v>
-      </c>
-      <c r="N308" t="s" s="2">
-        <v>933</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>43</v>
@@ -37907,10 +37894,10 @@
         <v>43</v>
       </c>
       <c r="AA308" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AB308" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AC308" t="s" s="2">
         <v>43</v>
@@ -37919,7 +37906,7 @@
         <v>76</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37948,7 +37935,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -38057,7 +38044,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38168,7 +38155,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38281,7 +38268,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38307,16 +38294,16 @@
         <v>178</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L312" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="M312" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N312" t="s" s="2">
         <v>939</v>
-      </c>
-      <c r="M312" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="N312" t="s" s="2">
-        <v>940</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>43</v>
@@ -38344,11 +38331,11 @@
         <v>116</v>
       </c>
       <c r="X312" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="Y312" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="Y312" t="s" s="2">
-        <v>778</v>
-      </c>
       <c r="Z312" t="s" s="2">
         <v>43</v>
       </c>
@@ -38365,7 +38352,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>50</v>
@@ -38394,7 +38381,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38417,17 +38404,17 @@
         <v>51</v>
       </c>
       <c r="J313" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K313" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="L313" t="s" s="2">
         <v>942</v>
-      </c>
-      <c r="L313" t="s" s="2">
-        <v>943</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38476,7 +38463,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>50</v>
@@ -38505,10 +38492,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C314" t="s" s="2">
         <v>43</v>
@@ -38533,16 +38520,16 @@
         <v>311</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="L314" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="M314" t="s" s="2">
         <v>931</v>
       </c>
-      <c r="M314" t="s" s="2">
+      <c r="N314" t="s" s="2">
         <v>932</v>
-      </c>
-      <c r="N314" t="s" s="2">
-        <v>933</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>43</v>
@@ -38591,7 +38578,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38620,7 +38607,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38729,7 +38716,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38840,7 +38827,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38953,7 +38940,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38979,16 +38966,16 @@
         <v>178</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L318" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="M318" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N318" t="s" s="2">
         <v>939</v>
-      </c>
-      <c r="M318" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="N318" t="s" s="2">
-        <v>940</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -39017,7 +39004,7 @@
       </c>
       <c r="X318" s="2"/>
       <c r="Y318" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Z318" t="s" s="2">
         <v>43</v>
@@ -39035,7 +39022,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>50</v>
@@ -39064,7 +39051,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39087,17 +39074,17 @@
         <v>51</v>
       </c>
       <c r="J319" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M319" s="2"/>
       <c r="N319" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -39146,7 +39133,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>50</v>
@@ -39175,7 +39162,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39201,14 +39188,14 @@
         <v>311</v>
       </c>
       <c r="K320" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="L320" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="L320" t="s" s="2">
-        <v>948</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>43</v>
@@ -39257,7 +39244,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -39286,7 +39273,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39395,7 +39382,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39506,7 +39493,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39619,7 +39606,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39645,14 +39632,14 @@
         <v>178</v>
       </c>
       <c r="K324" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="L324" t="s" s="2">
         <v>954</v>
-      </c>
-      <c r="L324" t="s" s="2">
-        <v>955</v>
       </c>
       <c r="M324" s="2"/>
       <c r="N324" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39681,7 +39668,7 @@
       </c>
       <c r="X324" s="2"/>
       <c r="Y324" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="Z324" t="s" s="2">
         <v>43</v>
@@ -39699,7 +39686,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39728,7 +39715,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39751,19 +39738,19 @@
         <v>43</v>
       </c>
       <c r="J325" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K325" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="L325" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="L325" t="s" s="2">
+      <c r="M325" t="s" s="2">
         <v>960</v>
       </c>
-      <c r="M325" t="s" s="2">
+      <c r="N325" t="s" s="2">
         <v>961</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>962</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39812,7 +39799,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39841,7 +39828,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39867,14 +39854,14 @@
         <v>178</v>
       </c>
       <c r="K326" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="L326" t="s" s="2">
         <v>964</v>
-      </c>
-      <c r="L326" t="s" s="2">
-        <v>965</v>
       </c>
       <c r="M326" s="2"/>
       <c r="N326" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39902,11 +39889,11 @@
         <v>116</v>
       </c>
       <c r="X326" t="s" s="2">
+        <v>966</v>
+      </c>
+      <c r="Y326" t="s" s="2">
         <v>967</v>
       </c>
-      <c r="Y326" t="s" s="2">
-        <v>968</v>
-      </c>
       <c r="Z326" t="s" s="2">
         <v>43</v>
       </c>
@@ -39923,7 +39910,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -39952,7 +39939,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -39975,17 +39962,17 @@
         <v>43</v>
       </c>
       <c r="J327" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K327" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="L327" t="s" s="2">
         <v>970</v>
-      </c>
-      <c r="L327" t="s" s="2">
-        <v>971</v>
       </c>
       <c r="M327" s="2"/>
       <c r="N327" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -40034,7 +40021,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40063,7 +40050,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40086,17 +40073,17 @@
         <v>43</v>
       </c>
       <c r="J328" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K328" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="L328" t="s" s="2">
         <v>974</v>
-      </c>
-      <c r="L328" t="s" s="2">
-        <v>975</v>
       </c>
       <c r="M328" s="2"/>
       <c r="N328" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
@@ -40145,7 +40132,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -40174,7 +40161,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40200,16 +40187,16 @@
         <v>159</v>
       </c>
       <c r="K329" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="L329" t="s" s="2">
         <v>978</v>
       </c>
-      <c r="L329" t="s" s="2">
+      <c r="M329" t="s" s="2">
         <v>979</v>
       </c>
-      <c r="M329" t="s" s="2">
+      <c r="N329" t="s" s="2">
         <v>980</v>
-      </c>
-      <c r="N329" t="s" s="2">
-        <v>981</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -40258,7 +40245,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
@@ -40287,7 +40274,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40313,16 +40300,16 @@
         <v>178</v>
       </c>
       <c r="K330" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L330" t="s" s="2">
         <v>983</v>
       </c>
-      <c r="L330" t="s" s="2">
+      <c r="M330" t="s" s="2">
         <v>984</v>
       </c>
-      <c r="M330" t="s" s="2">
+      <c r="N330" t="s" s="2">
         <v>985</v>
-      </c>
-      <c r="N330" t="s" s="2">
-        <v>986</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40350,11 +40337,11 @@
         <v>116</v>
       </c>
       <c r="X330" t="s" s="2">
+        <v>986</v>
+      </c>
+      <c r="Y330" t="s" s="2">
         <v>987</v>
       </c>
-      <c r="Y330" t="s" s="2">
-        <v>988</v>
-      </c>
       <c r="Z330" t="s" s="2">
         <v>43</v>
       </c>
@@ -40371,7 +40358,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40400,7 +40387,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40423,19 +40410,19 @@
         <v>43</v>
       </c>
       <c r="J331" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="K331" t="s" s="2">
         <v>990</v>
       </c>
-      <c r="K331" t="s" s="2">
+      <c r="L331" t="s" s="2">
         <v>991</v>
       </c>
-      <c r="L331" t="s" s="2">
+      <c r="M331" t="s" s="2">
         <v>992</v>
       </c>
-      <c r="M331" t="s" s="2">
+      <c r="N331" t="s" s="2">
         <v>993</v>
-      </c>
-      <c r="N331" t="s" s="2">
-        <v>994</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40484,7 +40471,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40513,7 +40500,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40539,14 +40526,14 @@
         <v>311</v>
       </c>
       <c r="K332" t="s" s="2">
+        <v>995</v>
+      </c>
+      <c r="L332" t="s" s="2">
         <v>996</v>
-      </c>
-      <c r="L332" t="s" s="2">
-        <v>997</v>
       </c>
       <c r="M332" s="2"/>
       <c r="N332" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>43</v>
@@ -40595,7 +40582,7 @@
         <v>43</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>41</v>
@@ -40624,7 +40611,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40733,7 +40720,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40844,7 +40831,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40957,7 +40944,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40983,14 +40970,14 @@
         <v>420</v>
       </c>
       <c r="K336" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="L336" t="s" s="2">
         <v>1003</v>
-      </c>
-      <c r="L336" t="s" s="2">
-        <v>1004</v>
       </c>
       <c r="M336" s="2"/>
       <c r="N336" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41039,7 +41026,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -41068,7 +41055,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41094,14 +41081,14 @@
         <v>126</v>
       </c>
       <c r="K337" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="L337" t="s" s="2">
         <v>1007</v>
-      </c>
-      <c r="L337" t="s" s="2">
-        <v>1008</v>
       </c>
       <c r="M337" s="2"/>
       <c r="N337" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41129,11 +41116,11 @@
         <v>172</v>
       </c>
       <c r="X337" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="Y337" t="s" s="2">
         <v>1010</v>
       </c>
-      <c r="Y337" t="s" s="2">
-        <v>1011</v>
-      </c>
       <c r="Z337" t="s" s="2">
         <v>43</v>
       </c>
@@ -41150,7 +41137,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41179,7 +41166,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41205,14 +41192,14 @@
         <v>52</v>
       </c>
       <c r="K338" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L338" t="s" s="2">
         <v>1013</v>
-      </c>
-      <c r="L338" t="s" s="2">
-        <v>1014</v>
       </c>
       <c r="M338" s="2"/>
       <c r="N338" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41261,7 +41248,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -41290,7 +41277,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41316,16 +41303,16 @@
         <v>178</v>
       </c>
       <c r="K339" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L339" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L339" t="s" s="2">
+      <c r="M339" t="s" s="2">
         <v>1018</v>
       </c>
-      <c r="M339" t="s" s="2">
+      <c r="N339" t="s" s="2">
         <v>1019</v>
-      </c>
-      <c r="N339" t="s" s="2">
-        <v>1020</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41374,7 +41361,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41403,7 +41390,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41429,16 +41416,16 @@
         <v>205</v>
       </c>
       <c r="K340" t="s" s="2">
+        <v>1021</v>
+      </c>
+      <c r="L340" t="s" s="2">
         <v>1022</v>
       </c>
-      <c r="L340" t="s" s="2">
+      <c r="M340" t="s" s="2">
         <v>1023</v>
       </c>
-      <c r="M340" t="s" s="2">
+      <c r="N340" t="s" s="2">
         <v>1024</v>
-      </c>
-      <c r="N340" t="s" s="2">
-        <v>1025</v>
       </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41487,7 +41474,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41516,7 +41503,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41542,10 +41529,10 @@
         <v>311</v>
       </c>
       <c r="K341" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="L341" t="s" s="2">
         <v>1027</v>
-      </c>
-      <c r="L341" t="s" s="2">
-        <v>1028</v>
       </c>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
@@ -41596,7 +41583,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41625,7 +41612,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41734,7 +41721,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41845,7 +41832,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41958,7 +41945,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -41984,16 +41971,16 @@
         <v>178</v>
       </c>
       <c r="K345" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="L345" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="L345" t="s" s="2">
+      <c r="M345" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="M345" t="s" s="2">
-        <v>681</v>
-      </c>
       <c r="N345" t="s" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>43</v>
@@ -42021,11 +42008,11 @@
         <v>116</v>
       </c>
       <c r="X345" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="Y345" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="Y345" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="Z345" t="s" s="2">
         <v>43</v>
       </c>
@@ -42042,7 +42029,7 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AF345" t="s" s="2">
         <v>50</v>
@@ -42071,7 +42058,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42097,14 +42084,14 @@
         <v>430</v>
       </c>
       <c r="K346" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="L346" t="s" s="2">
         <v>1035</v>
-      </c>
-      <c r="L346" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="M346" s="2"/>
       <c r="N346" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>43</v>
@@ -42153,7 +42140,7 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>41</v>
@@ -42182,7 +42169,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42208,16 +42195,16 @@
         <v>52</v>
       </c>
       <c r="K347" t="s" s="2">
+        <v>1038</v>
+      </c>
+      <c r="L347" t="s" s="2">
         <v>1039</v>
       </c>
-      <c r="L347" t="s" s="2">
+      <c r="M347" t="s" s="2">
         <v>1040</v>
       </c>
-      <c r="M347" t="s" s="2">
+      <c r="N347" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="N347" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42266,7 +42253,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42295,7 +42282,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42321,16 +42308,16 @@
         <v>52</v>
       </c>
       <c r="K348" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="L348" t="s" s="2">
         <v>1044</v>
       </c>
-      <c r="L348" t="s" s="2">
+      <c r="M348" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="M348" t="s" s="2">
+      <c r="N348" t="s" s="2">
         <v>1046</v>
-      </c>
-      <c r="N348" t="s" s="2">
-        <v>1047</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42379,7 +42366,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42408,7 +42395,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42434,14 +42421,14 @@
         <v>178</v>
       </c>
       <c r="K349" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="L349" t="s" s="2">
         <v>1049</v>
-      </c>
-      <c r="L349" t="s" s="2">
-        <v>1050</v>
       </c>
       <c r="M349" s="2"/>
       <c r="N349" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42469,11 +42456,11 @@
         <v>116</v>
       </c>
       <c r="X349" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="Y349" t="s" s="2">
         <v>1052</v>
       </c>
-      <c r="Y349" t="s" s="2">
-        <v>1053</v>
-      </c>
       <c r="Z349" t="s" s="2">
         <v>43</v>
       </c>
@@ -42490,7 +42477,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42519,7 +42506,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42545,14 +42532,14 @@
         <v>178</v>
       </c>
       <c r="K350" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="L350" t="s" s="2">
         <v>1055</v>
-      </c>
-      <c r="L350" t="s" s="2">
-        <v>1056</v>
       </c>
       <c r="M350" s="2"/>
       <c r="N350" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42580,11 +42567,11 @@
         <v>116</v>
       </c>
       <c r="X350" t="s" s="2">
+        <v>1057</v>
+      </c>
+      <c r="Y350" t="s" s="2">
         <v>1058</v>
       </c>
-      <c r="Y350" t="s" s="2">
-        <v>1059</v>
-      </c>
       <c r="Z350" t="s" s="2">
         <v>43</v>
       </c>
@@ -42601,7 +42588,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42630,7 +42617,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42656,14 +42643,14 @@
         <v>178</v>
       </c>
       <c r="K351" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="L351" t="s" s="2">
         <v>1061</v>
-      </c>
-      <c r="L351" t="s" s="2">
-        <v>1062</v>
       </c>
       <c r="M351" s="2"/>
       <c r="N351" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42691,11 +42678,11 @@
         <v>116</v>
       </c>
       <c r="X351" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="Y351" t="s" s="2">
         <v>1063</v>
       </c>
-      <c r="Y351" t="s" s="2">
-        <v>1064</v>
-      </c>
       <c r="Z351" t="s" s="2">
         <v>43</v>
       </c>
@@ -42712,7 +42699,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42741,7 +42728,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42767,10 +42754,10 @@
         <v>311</v>
       </c>
       <c r="K352" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="L352" t="s" s="2">
         <v>1066</v>
-      </c>
-      <c r="L352" t="s" s="2">
-        <v>1067</v>
       </c>
       <c r="M352" s="2"/>
       <c r="N352" s="2"/>
@@ -42821,7 +42808,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
@@ -42850,7 +42837,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42959,7 +42946,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -43070,7 +43057,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43183,7 +43170,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43209,16 +43196,16 @@
         <v>178</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L356" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="M356" t="s" s="2">
         <v>1072</v>
       </c>
-      <c r="M356" t="s" s="2">
+      <c r="N356" t="s" s="2">
         <v>1073</v>
-      </c>
-      <c r="N356" t="s" s="2">
-        <v>1074</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43246,11 +43233,11 @@
         <v>116</v>
       </c>
       <c r="X356" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="Y356" t="s" s="2">
         <v>1075</v>
       </c>
-      <c r="Y356" t="s" s="2">
-        <v>1076</v>
-      </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
       </c>
@@ -43267,7 +43254,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>50</v>
@@ -43296,7 +43283,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43319,17 +43306,17 @@
         <v>43</v>
       </c>
       <c r="J357" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="K357" t="s" s="2">
         <v>1078</v>
       </c>
-      <c r="K357" t="s" s="2">
+      <c r="L357" t="s" s="2">
         <v>1079</v>
-      </c>
-      <c r="L357" t="s" s="2">
-        <v>1080</v>
       </c>
       <c r="M357" s="2"/>
       <c r="N357" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43378,7 +43365,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43407,7 +43394,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43430,17 +43417,17 @@
         <v>43</v>
       </c>
       <c r="J358" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="K358" t="s" s="2">
         <v>1083</v>
       </c>
-      <c r="K358" t="s" s="2">
+      <c r="L358" t="s" s="2">
         <v>1084</v>
-      </c>
-      <c r="L358" t="s" s="2">
-        <v>1085</v>
       </c>
       <c r="M358" s="2"/>
       <c r="N358" t="s" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43489,7 +43476,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -8652,7 +8652,7 @@
         <v>43</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
@@ -18747,7 +18747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
         <v>562</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>43</v>
@@ -19302,7 +19302,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
         <v>573</v>
       </c>
@@ -19318,7 +19318,7 @@
         <v>42</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>43</v>
@@ -19413,7 +19413,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
         <v>577</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>50</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -2247,19 +2247,19 @@
     <t>The location can alter whether the item was acceptable for insurance purposes or impact the determination of the benefit amount.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CMSPlaceofServiceCodes</t>
+  </si>
+  <si>
+    <t>locationCodeableConcept</t>
+  </si>
+  <si>
+    <t>Place of service or where product was supplied</t>
+  </si>
+  <si>
     <t>Place where the service is rendered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/service-place</t>
-  </si>
-  <si>
-    <t>locationCodeableConcept</t>
-  </si>
-  <si>
-    <t>Place of service or where product was supplied</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CMSPlaceofServiceCodes</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.quantity</t>
@@ -12271,7 +12271,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
         <v>467</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>43</v>
@@ -12384,7 +12384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
         <v>473</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>50</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>43</v>
@@ -12493,7 +12493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
         <v>477</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>50</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>43</v>
@@ -13835,7 +13835,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
         <v>467</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>50</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>43</v>
@@ -13946,7 +13946,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
         <v>473</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>43</v>
@@ -14055,7 +14055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
         <v>477</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>50</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>43</v>
@@ -14951,7 +14951,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
         <v>467</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>50</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>43</v>
@@ -15062,7 +15062,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
         <v>473</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>43</v>
@@ -15171,7 +15171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
         <v>477</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>43</v>
@@ -16067,7 +16067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
         <v>467</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>50</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>43</v>
@@ -16180,7 +16180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
         <v>473</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>50</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>43</v>
@@ -16289,7 +16289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
         <v>477</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>50</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>43</v>
@@ -17185,7 +17185,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
         <v>467</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>50</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>43</v>
@@ -17298,7 +17298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
         <v>473</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>50</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>43</v>
@@ -17423,7 +17423,7 @@
         <v>50</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>43</v>
@@ -23259,13 +23259,11 @@
         <v>43</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X177" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X177" s="2"/>
+      <c r="Y177" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>43</v>
@@ -23313,7 +23311,7 @@
         <v>710</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C178" t="s" s="2">
         <v>43</v>
@@ -23338,7 +23336,7 @@
         <v>178</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L178" t="s" s="2">
         <v>713</v>
@@ -23370,9 +23368,11 @@
         <v>43</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X178" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>718</v>
+      </c>
       <c r="Y178" t="s" s="2">
         <v>719</v>
       </c>
@@ -34062,7 +34062,7 @@
         <v>711</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L274" t="s" s="2">
         <v>713</v>
@@ -34097,10 +34097,10 @@
         <v>116</v>
       </c>
       <c r="X274" t="s" s="2">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="Y274" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="Z274" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -1306,10 +1306,13 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-EOB-prof-careTeam-practitioner:Professional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
-('performing' or 'primary' or 'referring' or 'supervising')) implies 
- careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-prof-careTeam-organization:Professional EOB:  Careteam roles refer to an organization {( careTeam.role.coding.code='site') implies 
- careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
+EOB-prof-careTeam-practitioner:Professional EOB:  Careteam roles refer to a practitioner {( 
+     careTeam.where(role.where(coding.where(code in ('performing' or 'primary' or 'referring' or 'supervising')).exists()).exists()).exists() implies
+     careTeam.where(role.where(coding.where(code in ('performing' or 'primary' or 'referring' or 'supervising')).exists()).exists()).provider.all(resolve().is Practitioner)
+    )}EOB-prof-careTeam-organization:Professional EOB:  Careteam roles refer to an organization {( 
+     careTeam.where(role.where(coding.where(code in ( 'site')).exists()).exists()).exists() implies
+     careTeam.where(role.where(coding.where(code in ( 'site')).exists()).exists()).provider.all(resolve().is Organization)
+    )}</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.careTeam.id</t>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -12662,7 +12662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
         <v>485</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>50</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>43</v>
@@ -13782,7 +13782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>485</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>50</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>43</v>
@@ -14900,7 +14900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>485</v>
       </c>
@@ -14916,7 +14916,7 @@
         <v>50</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>43</v>
@@ -16018,7 +16018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>485</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>50</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>43</v>
@@ -17138,7 +17138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>485</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>50</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>43</v>
